--- a/inputs/order.xlsx
+++ b/inputs/order.xlsx
@@ -5,17 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu/Documents/code/FreezBoneInventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu/Documents/code/FreezBoneInventory/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69583580-4FCD-D341-8388-FF516F6F61EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA4F846-2C39-3A46-AB72-0D4EDFE237CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21600" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="21600" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$D$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="73">
   <si>
     <t>Freezbone</t>
   </si>
@@ -90,9 +96,6 @@
     <t>Mix (Chicken, Beef, Duck, Liver)</t>
   </si>
   <si>
-    <t>Peanut Butter</t>
-  </si>
-  <si>
     <t>Refillable Bone Treats 45 Grams (4 Pack)</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
     <t xml:space="preserve">Variant </t>
   </si>
   <si>
-    <t>WebSite Price</t>
-  </si>
-  <si>
     <t>Bone</t>
   </si>
   <si>
@@ -129,9 +129,6 @@
     <t>Purple</t>
   </si>
   <si>
-    <t>Costs</t>
-  </si>
-  <si>
     <t>Order Date</t>
   </si>
   <si>
@@ -222,33 +219,59 @@
     <t>F-MX90</t>
   </si>
   <si>
-    <t>F-BE</t>
-  </si>
-  <si>
-    <t>F-CH</t>
-  </si>
-  <si>
-    <t>F-DU</t>
-  </si>
-  <si>
-    <t>F-LI</t>
-  </si>
-  <si>
-    <t>F-MX</t>
-  </si>
-  <si>
-    <t>F-PB</t>
+    <t>Freezstar</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Freezlava</t>
+  </si>
+  <si>
+    <t>FST-C</t>
+  </si>
+  <si>
+    <t>FST-N</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t>navy</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>weight （g)</t>
+  </si>
+  <si>
+    <t>proposed cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>currrent price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,13 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -299,15 +315,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -413,17 +441,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -471,7 +488,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,16 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,9 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -522,46 +530,53 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +585,269 @@
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -602,18 +879,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -822,13 +1087,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Modified Wholesale" pivot="0" count="7" xr9:uid="{716FA764-57F4-DF40-B8CC-B72D5D1579DE}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="lastColumn" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -847,15 +1112,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>320973</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>81952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>739632</xdr:colOff>
+      <xdr:colOff>793905</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>94652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -878,8 +1143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="5041900"/>
-          <a:ext cx="472932" cy="469900"/>
+          <a:off x="1373879" y="4640926"/>
+          <a:ext cx="472932" cy="468598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,8 +1163,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>764267</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,13 +1377,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>988354</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1155,22 +1420,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41715</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>238803</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>151965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>979755</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1D0D5C-C446-E61F-C629-F30C52A601BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611E7345-9EA9-1C4F-658D-F89D8149AF74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,15 +1444,827 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095815" y="7048500"/>
-          <a:ext cx="938040" cy="1016000"/>
+          <a:off x="1291709" y="5166837"/>
+          <a:ext cx="542735" cy="629574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>764267</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E8670F-BD5E-C745-B6B0-0415CF592F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="2019300"/>
+          <a:ext cx="548367" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548367" cy="495300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495D2A97-CDF5-8540-B3B0-2BB35A0BF872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="66636900"/>
+          <a:ext cx="548367" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244990</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>179645</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="472932" cy="469900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F864487-7F43-7D4A-BA98-56958B651617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2721490" y="67438845"/>
+          <a:ext cx="472932" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771335</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>19974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D95EE6-4030-034B-B4A6-8DCC8BDEFD4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="67259200"/>
+          <a:ext cx="542735" cy="629574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701532</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>176498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4504E9-0ED1-164A-84C6-B1E2C2BFB892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="67983100"/>
+          <a:ext cx="472932" cy="468598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548367" cy="495300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38C7C90-EF82-A44A-90DB-3BACCFFF1BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="66636900"/>
+          <a:ext cx="548367" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="542735" cy="629574"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBEBC6A-B5B5-7647-8626-067A6F8EC210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="67259200"/>
+          <a:ext cx="542735" cy="629574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="472932" cy="468598"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DED03E9-178B-314C-BC12-B110B9D9E06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="67983100"/>
+          <a:ext cx="472932" cy="468598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>739632</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BE28D7-8C4A-FF47-9526-11A1ACC63906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="4762500"/>
+          <a:ext cx="472932" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>688067</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34FF73A-8285-3143-84FE-21611721AF49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="203200"/>
+          <a:ext cx="548367" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>126132</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668867</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60150025-1EDB-3D43-9929-5945A88B832F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="126132" y="1115320"/>
+          <a:ext cx="542735" cy="620456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320973</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>793905</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11FF51A-06F3-9449-956A-11E9162D6355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1375073" y="4653952"/>
+          <a:ext cx="472932" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>764267</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E1675F-30E1-9F47-87CD-5CD320B3A9D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="2019300"/>
+          <a:ext cx="548367" cy="498613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>735013</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87859C1-E692-2A42-95AD-FDA8CBA8ACDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231900" y="444500"/>
+          <a:ext cx="557213" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78A4BAE-A992-1F41-835A-077F1A9FC0F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="3454400"/>
+          <a:ext cx="736600" cy="432353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839D9FB1-75A0-2D47-9F87-46CF88E8226F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117600" y="4102101"/>
+          <a:ext cx="927100" cy="490246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1011767</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2902A2FE-D64A-9F46-8D83-031E0BDA7E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117600" y="2997201"/>
+          <a:ext cx="948267" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>226103</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>768838</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DA536E-0C2E-5D48-87E2-8F6A7AFB043C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280203" y="5358965"/>
+          <a:ext cx="542735" cy="620456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,16 +2277,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}" name="Table3" displayName="Table3" ref="C1:I35" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="C1:I35" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5964C88A-3809-BA4F-BFD5-9AACEE44E3D3}" name="Product Title" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C7FD7F7-CF67-6145-B28C-FB331EDA84F8}" name="Variant " dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{25439EFD-92D9-C541-BDFB-61BB8E48ED7E}" name="Costs" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{EA19F3EB-645C-3F4D-825A-69E0EFDA7450}" name="WebSite Price" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C27724EE-CA24-924F-B403-4087D441EA90}" name="SKU" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="19" xr3:uid="{0615FBA6-EABE-104D-8ADA-EEABCADA5FA9}" name="Order Date" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{34B6D53B-1FD4-2C4A-B197-A54C4351F080}" name="Order Amount" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}" name="Table3" displayName="Table3" ref="C1:H39" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+  <autoFilter ref="C1:H39" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5964C88A-3809-BA4F-BFD5-9AACEE44E3D3}" name="Product Title" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{2C7FD7F7-CF67-6145-B28C-FB331EDA84F8}" name="Variant " dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{C27724EE-CA24-924F-B403-4087D441EA90}" name="SKU" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Currency"/>
+    <tableColumn id="19" xr3:uid="{0615FBA6-EABE-104D-8ADA-EEABCADA5FA9}" name="Order Date" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{34B6D53B-1FD4-2C4A-B197-A54C4351F080}" name="Order Amount" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{3B3EFBC6-4766-2C4B-A361-E81F7CD0E6AD}" name="Column1" dataDxfId="14">
+      <calculatedColumnFormula>Table3[[#This Row],[Order Amount]]*#REF!</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Modified Wholesale" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A804E20C-CBCB-334A-829B-8DEE5520CB9F}" name="Table33" displayName="Table33" ref="C1:G27" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="C1:G27" xr:uid="{A804E20C-CBCB-334A-829B-8DEE5520CB9F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9FF40439-98B7-C443-9943-78AE69967342}" name="Product Title" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5798DC8E-E0C8-5747-BCAD-A79BC1303785}" name="Variant " dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E3D618FF-7669-B742-B345-3B5122D82640}" name="weight （g)" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{9970DBFD-690E-AE49-A124-01E8A4D6E3FE}" name="proposed cost" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>0.66*Table33[[#This Row],[weight （g)]]/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4D7BEA89-63DC-B64F-868A-D4690AD291C8}" name="currrent price" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Modified Wholesale" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1512,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5595084-6FB7-4244-964E-AB4658DB0DDA}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,799 +2618,655 @@
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20">
-        <v>2.17</v>
-      </c>
-      <c r="F2" s="12">
-        <v>18.95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20">
-        <v>1.61</v>
-      </c>
-      <c r="F3" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20">
-        <v>2.17</v>
-      </c>
-      <c r="F4" s="3">
-        <v>18.95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20">
-        <v>1.61</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="20">
-        <v>2.17</v>
-      </c>
-      <c r="F6" s="3">
-        <v>18.95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="4" t="s">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="26">
-        <v>1.61</v>
-      </c>
-      <c r="F7" s="6">
-        <v>14.95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="10" t="s">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="16">
-        <v>3.2709999999999999</v>
-      </c>
-      <c r="F8" s="21">
-        <v>22.95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G8">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="16">
-        <v>1.5751380281690139</v>
-      </c>
-      <c r="F9" s="3">
-        <v>18.95</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="16">
-        <v>1.3032507042253521</v>
-      </c>
-      <c r="F10" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="16">
-        <v>3.2709999999999999</v>
-      </c>
-      <c r="F11" s="22">
-        <v>22.95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G11">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="16">
-        <v>1.5751380281690139</v>
-      </c>
-      <c r="F12" s="3">
-        <v>18.95</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="25">
-        <v>1.3032507042253521</v>
-      </c>
-      <c r="F13" s="6">
-        <v>14.95</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="16">
-        <v>2.8592943661971835</v>
-      </c>
-      <c r="F14" s="12">
-        <v>13.95</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F16" s="17">
+        <v>45536</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="25">
-        <v>2.8592943661971835</v>
-      </c>
-      <c r="F15" s="6">
-        <v>13.95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="16">
-        <v>2.3313070422535209</v>
-      </c>
-      <c r="F16" s="3">
-        <v>16.95</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="28">
-        <v>45311</v>
-      </c>
-      <c r="I16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="25">
-        <v>2.3313070422535209</v>
-      </c>
-      <c r="F17" s="6">
-        <v>16.95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="28">
-        <v>45311</v>
-      </c>
-      <c r="I17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="10" t="s">
+      <c r="F17" s="17">
+        <v>45536</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16">
-        <v>3.8930971830985919</v>
-      </c>
-      <c r="F18" s="12">
-        <v>22.95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="28">
-        <v>45332</v>
-      </c>
-      <c r="I18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="16">
-        <v>3.5063366197183097</v>
-      </c>
-      <c r="F19" s="3">
-        <v>18.95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="28">
-        <v>45333</v>
-      </c>
-      <c r="I19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="16">
-        <v>3.8930971830985919</v>
-      </c>
-      <c r="F20" s="3">
-        <v>22.95</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="28">
-        <v>45334</v>
-      </c>
-      <c r="I20">
+      <c r="F23" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G23">
+        <v>500</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G24">
+        <v>600</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="17">
+        <v>45523</v>
+      </c>
+      <c r="G25">
+        <v>600</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="17"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="17">
+        <v>45536</v>
+      </c>
+      <c r="G28">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="25">
-        <v>3.5063366197183097</v>
-      </c>
-      <c r="F21" s="6">
-        <v>18.95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="28">
-        <v>45335</v>
-      </c>
-      <c r="I21">
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="17">
+        <v>45536</v>
+      </c>
+      <c r="G29">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="16">
-        <v>3.5709999999999997</v>
-      </c>
-      <c r="F22" s="3">
-        <v>22.95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I22">
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="17">
+        <v>45536</v>
+      </c>
+      <c r="G30">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="25">
-        <v>3.5709999999999997</v>
-      </c>
-      <c r="F23" s="6">
-        <v>22.95</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="28">
-        <v>45297</v>
-      </c>
-      <c r="I23">
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="17">
+        <v>45536</v>
+      </c>
+      <c r="G31">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="13" t="s">
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="23">
-        <v>2.1</v>
-      </c>
-      <c r="F24" s="17">
-        <v>14.95</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="28">
-        <v>45337</v>
-      </c>
-      <c r="I24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="23">
-        <v>2.1</v>
-      </c>
-      <c r="F25" s="17">
-        <v>14.95</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="28">
-        <v>45338</v>
-      </c>
-      <c r="I25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="23">
-        <v>2.1</v>
-      </c>
-      <c r="F26" s="17">
-        <v>14.95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="28">
-        <v>45339</v>
-      </c>
-      <c r="I26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2.1</v>
-      </c>
-      <c r="F27" s="17">
-        <v>14.95</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="28">
-        <v>45340</v>
-      </c>
-      <c r="I27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="F28" s="27">
-        <v>14.95</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="28">
-        <v>45341</v>
-      </c>
-      <c r="I28">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F29" s="17">
-        <v>12.95</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F30" s="17">
-        <v>12.95</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F31" s="17">
-        <v>12.95</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1.8</v>
-      </c>
       <c r="F32" s="17">
-        <v>12.95</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F33" s="17">
-        <v>12.95</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F34" s="17">
-        <v>12.95</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="17"/>
+        <v>45536</v>
+      </c>
+      <c r="G32">
+        <v>2400</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="14"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="14"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="14"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="14"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="14"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="14"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="14"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f>2600+3450</f>
+        <v>6050</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="A2:A23"/>
+  <mergeCells count="12">
+    <mergeCell ref="A28:A37"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2328,13 +3278,1304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75E2351-4762-314C-9A7B-67926DC23C04}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF57E0-FB3E-D743-9D30-2FA9D020282B}">
+  <dimension ref="G11:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0"/>
+    <sheetView topLeftCell="L28" zoomScale="315" zoomScaleNormal="315" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>7700</v>
+      </c>
+      <c r="I11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>550</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>380</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f>SUM(G11:G18)</f>
+        <v>10360</v>
+      </c>
+    </row>
+    <row r="29" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <f>929/66</f>
+        <v>14.075757575757576</v>
+      </c>
+    </row>
+    <row r="30" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>18</v>
+      </c>
+      <c r="P30">
+        <v>18000</v>
+      </c>
+      <c r="Q30">
+        <f>P30/K29</f>
+        <v>1278.7944025834231</v>
+      </c>
+    </row>
+    <row r="31" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <f>O30*P30/7</f>
+        <v>46285.714285714283</v>
+      </c>
+      <c r="Q31">
+        <v>10000</v>
+      </c>
+      <c r="R31">
+        <f>P31/Q31</f>
+        <v>4.6285714285714281</v>
+      </c>
+    </row>
+    <row r="32" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <f>P31-G19</f>
+        <v>35925.714285714283</v>
+      </c>
+    </row>
+    <row r="33" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>6500</v>
+      </c>
+      <c r="Q33">
+        <f>P33/18</f>
+        <v>361.11111111111109</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <f>Q33/14</f>
+        <v>25.793650793650791</v>
+      </c>
+    </row>
+    <row r="36" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <f>18000/14</f>
+        <v>1285.7142857142858</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <f>6008*18/7</f>
+        <v>15449.142857142857</v>
+      </c>
+    </row>
+    <row r="39" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75E2351-4762-314C-9A7B-67926DC23C04}">
+  <dimension ref="D326:M359"/>
+  <sheetViews>
+    <sheetView topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="I341" sqref="I341"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="326" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="H326" t="s">
+        <v>65</v>
+      </c>
+      <c r="I326" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="327" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D327" s="28"/>
+      <c r="E327" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F327" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G327">
+        <v>200</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>200</v>
+      </c>
+      <c r="J327" s="28"/>
+      <c r="K327" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L327" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M327">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="328" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D328" s="28"/>
+      <c r="E328" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G328">
+        <v>200</v>
+      </c>
+      <c r="H328">
+        <v>-37</v>
+      </c>
+      <c r="I328">
+        <v>300</v>
+      </c>
+      <c r="J328" s="28"/>
+      <c r="K328" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M328">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="329" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D329" s="28"/>
+      <c r="E329" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H329">
+        <v>297</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329" s="28"/>
+      <c r="K329" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L329" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M329">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="330" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D330" s="28"/>
+      <c r="E330" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G330">
+        <v>300</v>
+      </c>
+      <c r="H330">
+        <v>-237</v>
+      </c>
+      <c r="I330">
+        <v>300</v>
+      </c>
+      <c r="J330" s="28"/>
+      <c r="K330" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M330">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="331" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D331" s="28"/>
+      <c r="E331" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G331">
+        <v>200</v>
+      </c>
+      <c r="H331">
+        <v>-73</v>
+      </c>
+      <c r="I331">
+        <v>300</v>
+      </c>
+      <c r="J331" s="28"/>
+      <c r="K331" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M331">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="332" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D332" s="28"/>
+      <c r="E332" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G332">
+        <v>145</v>
+      </c>
+      <c r="I332">
+        <v>100</v>
+      </c>
+      <c r="J332" s="28"/>
+      <c r="K332" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M332">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="333" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D333" s="28"/>
+      <c r="E333" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F333" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G333">
+        <v>200</v>
+      </c>
+      <c r="J333" s="28"/>
+      <c r="K333" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L333" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M333">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="334" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D334" s="28"/>
+      <c r="E334" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G334">
+        <v>200</v>
+      </c>
+      <c r="J334" s="28"/>
+      <c r="K334" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L334" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M334">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="336" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E336" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F336" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G336">
+        <v>200</v>
+      </c>
+      <c r="H336">
+        <v>-35</v>
+      </c>
+      <c r="I336">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="337" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E337" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G337">
+        <v>100</v>
+      </c>
+      <c r="H337">
+        <v>-1</v>
+      </c>
+      <c r="I337">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F340" s="29"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="5"/>
+    </row>
+    <row r="341" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F341" s="29"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="5"/>
+    </row>
+    <row r="342" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I342" s="19"/>
+    </row>
+    <row r="349" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E349" s="28"/>
+      <c r="F349" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H349">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="350" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E350" s="28"/>
+      <c r="F350" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H350">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="351" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E351" s="28"/>
+      <c r="F351" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E352" s="28"/>
+      <c r="F352" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H352">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="353" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E353" s="28"/>
+      <c r="F353" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H353">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="354" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E354" s="28"/>
+      <c r="F354" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G354" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H354">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="355" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E355" s="28"/>
+      <c r="F355" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G355" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E356" s="28"/>
+      <c r="F356" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="358" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F358" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G358" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H358">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="359" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F359" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H359">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E355:E356"/>
+    <mergeCell ref="F340:F341"/>
+    <mergeCell ref="D327:D332"/>
+    <mergeCell ref="D333:D334"/>
+    <mergeCell ref="J327:J332"/>
+    <mergeCell ref="J333:J334"/>
+    <mergeCell ref="E349:E354"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46134782-FB28-DA40-BA3D-6A2FB381194C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D25" xr:uid="{46134782-FB28-DA40-BA3D-6A2FB381194C}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="7">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D457DC-0F27-1F47-A9F5-9CA31B40FDF4}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>98</v>
+      </c>
+      <c r="F2" s="24">
+        <f>0.67*Table33[[#This Row],[weight （g)]]/100</f>
+        <v>0.65660000000000007</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>82</v>
+      </c>
+      <c r="F3" s="24">
+        <f>0.67*Table33[[#This Row],[weight （g)]]/100</f>
+        <v>0.5494</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>283</v>
+      </c>
+      <c r="F8" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>1.8961000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>127</v>
+      </c>
+      <c r="F9" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>0.67</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>219</v>
+      </c>
+      <c r="F14" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>1.4673000000000003</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2">
+        <v>190</v>
+      </c>
+      <c r="F16" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>1.2730000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>395</v>
+      </c>
+      <c r="F18" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>2.6465000000000005</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>362</v>
+      </c>
+      <c r="F19" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>2.4254000000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2">
+        <v>378</v>
+      </c>
+      <c r="F22" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>2.5326000000000004</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5">
+        <v>236</v>
+      </c>
+      <c r="F24" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>1.5811999999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="5">
+        <v>402</v>
+      </c>
+      <c r="F26" s="24">
+        <f>Table33[[#This Row],[weight （g)]]*0.67/100</f>
+        <v>2.6934000000000005</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/inputs/order.xlsx
+++ b/inputs/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu/Documents/code/FreezBoneInventory/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA4F846-2C39-3A46-AB72-0D4EDFE237CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29996836-2F7B-014D-96F0-4EA894304B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="21600" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
+    <workbookView xWindow="400" yWindow="100" windowWidth="25600" windowHeight="21600" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
   <si>
     <t>Freezbone</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>currrent price</t>
+  </si>
+  <si>
+    <t>FL-N</t>
+  </si>
+  <si>
+    <t>FL-C</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2615,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2749,10 +2755,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="17">
-        <v>45523</v>
+        <v>45545</v>
       </c>
       <c r="G8">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -2768,12 +2774,7 @@
       <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="17">
-        <v>45523</v>
-      </c>
-      <c r="G9">
-        <v>300</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2788,12 +2789,7 @@
       <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="17">
-        <v>45523</v>
-      </c>
-      <c r="G10">
-        <v>300</v>
-      </c>
+      <c r="F10" s="17"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2809,10 +2805,10 @@
         <v>40</v>
       </c>
       <c r="F11" s="17">
-        <v>45523</v>
+        <v>45545</v>
       </c>
       <c r="G11">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -2828,12 +2824,7 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="17">
-        <v>45523</v>
-      </c>
-      <c r="G12">
-        <v>300</v>
-      </c>
+      <c r="F12" s="17"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,12 +2839,7 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="17">
-        <v>45523</v>
-      </c>
-      <c r="G13">
-        <v>300</v>
-      </c>
+      <c r="F13" s="17"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="17">
-        <v>45536</v>
+        <v>45545</v>
       </c>
       <c r="G16">
         <v>200</v>
@@ -2917,7 +2903,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="17">
-        <v>45536</v>
+        <v>45545</v>
       </c>
       <c r="G17">
         <v>200</v>
@@ -2997,10 +2983,10 @@
         <v>51</v>
       </c>
       <c r="F22" s="17">
-        <v>45523</v>
+        <v>45545</v>
       </c>
       <c r="G22">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -3017,10 +3003,10 @@
         <v>52</v>
       </c>
       <c r="F23" s="17">
-        <v>45523</v>
+        <v>45545</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H23" s="13"/>
     </row>
@@ -3037,10 +3023,10 @@
         <v>62</v>
       </c>
       <c r="F24" s="17">
-        <v>45523</v>
+        <v>45545</v>
       </c>
       <c r="G24">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H24" s="13"/>
     </row>
@@ -3057,10 +3043,10 @@
         <v>61</v>
       </c>
       <c r="F25" s="17">
-        <v>45523</v>
+        <v>45545</v>
       </c>
       <c r="G25">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -3073,7 +3059,9 @@
       <c r="D26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="H26" s="13"/>
     </row>
@@ -3086,7 +3074,9 @@
       <c r="D27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="H27" s="13"/>
     </row>
@@ -4102,7 +4092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D457DC-0F27-1F47-A9F5-9CA31B40FDF4}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>

--- a/inputs/order.xlsx
+++ b/inputs/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu/Documents/code/FreezBoneInventory/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3033A2BC-3D47-C64F-94BF-B20BE2A9A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1358AC29-19EA-3E45-8881-A97E14429200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21600" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28120" windowHeight="18000" xr2:uid="{B3CF2995-1964-EA4C-A590-465F635D229F}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>Freezbone</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>Order Amount2</t>
+  </si>
+  <si>
+    <t>Order Date2</t>
+  </si>
+  <si>
+    <t>Order Amount3</t>
+  </si>
+  <si>
+    <t>Order Data4</t>
+  </si>
+  <si>
+    <t>Order Amount25</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +309,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -464,7 +483,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -544,15 +563,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -563,11 +610,6 @@
         <b val="0"/>
       </font>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -803,13 +845,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Modified Wholesale" pivot="0" count="7" xr9:uid="{716FA764-57F4-DF40-B8CC-B72D5D1579DE}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1187,18 +1229,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}" name="Table3" displayName="Table3" ref="C1:I39" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="C1:I39" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5964C88A-3809-BA4F-BFD5-9AACEE44E3D3}" name="Product Title" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C7FD7F7-CF67-6145-B28C-FB331EDA84F8}" name="Variant " dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C27724EE-CA24-924F-B403-4087D441EA90}" name="SKU" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="19" xr3:uid="{0615FBA6-EABE-104D-8ADA-EEABCADA5FA9}" name="Order Date" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{34B6D53B-1FD4-2C4A-B197-A54C4351F080}" name="Order Amount" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3B3EFBC6-4766-2C4B-A361-E81F7CD0E6AD}" name="Order Data" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}" name="Table3" displayName="Table3" ref="C1:M39" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="C1:M39" xr:uid="{64556F95-934B-6A4B-AE84-10E6ECCD191F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5964C88A-3809-BA4F-BFD5-9AACEE44E3D3}" name="Product Title" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2C7FD7F7-CF67-6145-B28C-FB331EDA84F8}" name="Variant " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{C27724EE-CA24-924F-B403-4087D441EA90}" name="SKU" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="19" xr3:uid="{0615FBA6-EABE-104D-8ADA-EEABCADA5FA9}" name="Order Date" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{34B6D53B-1FD4-2C4A-B197-A54C4351F080}" name="Order Amount" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3B3EFBC6-4766-2C4B-A361-E81F7CD0E6AD}" name="Order Data" dataDxfId="6">
       <calculatedColumnFormula>Table3[[#This Row],[Order Amount]]*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B908E577-E70D-9643-AFBB-298FFAC8C888}" name="Order Amount2" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B908E577-E70D-9643-AFBB-298FFAC8C888}" name="Order Amount2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{15E6150C-9E52-6D4A-805A-2E71932C81F7}" name="Order Date2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{35E5B3F9-F849-CF4C-BFE0-BD8DCC3FE03C}" name="Order Amount3" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{C3FECE9F-C4FE-C64B-9AAE-E7DA0455F802}" name="Order Data4" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E4F145C1-D8D3-FE44-98FE-0BF0E160A14F}" name="Order Amount25" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Modified Wholesale" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1501,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5595084-6FB7-4244-964E-AB4658DB0DDA}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1517,7 +1563,7 @@
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="15" t="s">
         <v>23</v>
@@ -1540,11 +1586,23 @@
       <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
@@ -1558,10 +1616,15 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2" s="13"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="27"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
       <c r="B3" s="21"/>
       <c r="C3" s="1" t="s">
@@ -1573,10 +1636,15 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="27"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
@@ -1589,10 +1657,15 @@
         <v>33</v>
       </c>
       <c r="F4" s="17"/>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="27"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
@@ -1605,10 +1678,15 @@
         <v>34</v>
       </c>
       <c r="F5" s="17"/>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="27"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="21"/>
       <c r="C6" s="1" t="s">
@@ -1621,10 +1699,15 @@
         <v>35</v>
       </c>
       <c r="F6" s="17"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="27"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="21"/>
       <c r="C7" s="3" t="s">
@@ -1637,10 +1720,15 @@
         <v>36</v>
       </c>
       <c r="F7" s="17"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="27"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="21"/>
       <c r="C8" s="8" t="s">
@@ -1652,20 +1740,30 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="17">
-        <v>45555</v>
-      </c>
+      <c r="F8" s="17"/>
       <c r="G8">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H8" s="17">
-        <v>45562</v>
-      </c>
-      <c r="I8" s="27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45574</v>
+      </c>
+      <c r="I8">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K8" s="29">
+        <v>300</v>
+      </c>
+      <c r="L8" s="31">
+        <v>45626</v>
+      </c>
+      <c r="M8">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="21"/>
       <c r="C9" s="1" t="s">
@@ -1677,11 +1775,32 @@
       <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="17">
+        <v>45559</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K9" s="29">
+        <v>100</v>
+      </c>
+      <c r="L9" s="31">
+        <v>45627</v>
+      </c>
+      <c r="M9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
@@ -1694,10 +1813,24 @@
         <v>39</v>
       </c>
       <c r="F10" s="17"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K10" s="29">
+        <v>300</v>
+      </c>
+      <c r="L10" s="31">
+        <v>45628</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
@@ -1709,20 +1842,30 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="17">
-        <v>45555</v>
-      </c>
+      <c r="F11" s="17"/>
       <c r="G11">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H11" s="17">
-        <v>45562</v>
-      </c>
-      <c r="I11" s="27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45574</v>
+      </c>
+      <c r="I11">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K11" s="29">
+        <v>300</v>
+      </c>
+      <c r="L11" s="31">
+        <v>45629</v>
+      </c>
+      <c r="M11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
@@ -1734,15 +1877,32 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>45559</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
       <c r="H12" s="17">
-        <v>45562</v>
-      </c>
-      <c r="I12" s="27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45574</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K12" s="29">
+        <v>300</v>
+      </c>
+      <c r="L12" s="31">
+        <v>45630</v>
+      </c>
+      <c r="M12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="21"/>
       <c r="C13" s="3" t="s">
@@ -1755,10 +1915,24 @@
         <v>42</v>
       </c>
       <c r="F13" s="17"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K13" s="29">
+        <v>300</v>
+      </c>
+      <c r="L13" s="31">
+        <v>45631</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="21"/>
       <c r="C14" s="8" t="s">
@@ -1770,10 +1944,20 @@
       <c r="E14" t="s">
         <v>43</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="27"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="31">
+        <v>45632</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="21"/>
       <c r="C15" s="3" t="s">
@@ -1785,10 +1969,22 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="27"/>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31">
+        <v>45633</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="21"/>
       <c r="C16" s="8" t="s">
@@ -1800,15 +1996,32 @@
       <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17">
+        <v>45559</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
       <c r="H16" s="17">
-        <v>45562</v>
-      </c>
-      <c r="I16" s="27">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45574</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K16" s="29">
+        <v>400</v>
+      </c>
+      <c r="L16" s="31">
+        <v>45634</v>
+      </c>
+      <c r="M16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="21"/>
       <c r="C17" s="3" t="s">
@@ -1820,15 +2033,32 @@
       <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17">
+        <v>45559</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
       <c r="H17" s="17">
-        <v>45562</v>
-      </c>
-      <c r="I17" s="27">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45574</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K17" s="29">
+        <v>400</v>
+      </c>
+      <c r="L17" s="31">
+        <v>45635</v>
+      </c>
+      <c r="M17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="21"/>
       <c r="C18" s="8" t="s">
@@ -1841,14 +2071,29 @@
         <v>47</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="H18" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I18" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I18">
+        <v>400</v>
+      </c>
+      <c r="J18" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K18" s="29">
+        <v>100</v>
+      </c>
+      <c r="L18" s="31">
+        <v>45636</v>
+      </c>
+      <c r="M18">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
@@ -1861,10 +2106,29 @@
         <v>48</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I19">
+        <v>400</v>
+      </c>
+      <c r="J19" s="31">
+        <v>45580</v>
+      </c>
+      <c r="K19" s="29">
+        <v>100</v>
+      </c>
+      <c r="L19" s="31">
+        <v>45637</v>
+      </c>
+      <c r="M19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
@@ -1877,14 +2141,25 @@
         <v>49</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="H20" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I20" s="30">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I20">
+        <v>400</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="31">
+        <v>45638</v>
+      </c>
+      <c r="M20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="21"/>
       <c r="C21" s="3" t="s">
@@ -1897,14 +2172,25 @@
         <v>50</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="H21" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I21" s="30">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I21">
+        <v>400</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="31">
+        <v>45639</v>
+      </c>
+      <c r="M21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="21"/>
       <c r="C22" s="6" t="s">
@@ -1917,14 +2203,25 @@
         <v>51</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="H22" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I22" s="30">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="31">
+        <v>45640</v>
+      </c>
+      <c r="M22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="21"/>
       <c r="C23" s="12" t="s">
@@ -1937,14 +2234,25 @@
         <v>52</v>
       </c>
       <c r="F23" s="17"/>
-      <c r="H23" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I23" s="30">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="31">
+        <v>45641</v>
+      </c>
+      <c r="M23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="22"/>
       <c r="C24" s="6" t="s">
@@ -1957,14 +2265,25 @@
         <v>62</v>
       </c>
       <c r="F24" s="17"/>
-      <c r="H24" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I24" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I24">
+        <v>500</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31">
+        <v>45642</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="22"/>
       <c r="C25" s="6" t="s">
@@ -1977,14 +2296,25 @@
         <v>61</v>
       </c>
       <c r="F25" s="17"/>
-      <c r="H25" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I25" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I25">
+        <v>500</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31">
+        <v>45643</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="22"/>
       <c r="C26" s="6" t="s">
@@ -1997,14 +2327,25 @@
         <v>65</v>
       </c>
       <c r="F26" s="17"/>
-      <c r="H26" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I26" s="30">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I26">
+        <v>200</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31">
+        <v>45644</v>
+      </c>
+      <c r="M26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="22"/>
       <c r="C27" s="6" t="s">
@@ -2017,14 +2358,25 @@
         <v>66</v>
       </c>
       <c r="F27" s="17"/>
-      <c r="H27" s="29">
-        <v>45562</v>
-      </c>
-      <c r="I27" s="30">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>45574</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31">
+        <v>45645</v>
+      </c>
+      <c r="M27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>21</v>
       </c>
@@ -2038,16 +2390,14 @@
       <c r="E28" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="17">
-        <v>45538</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
+      <c r="F28" s="17"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="22"/>
       <c r="C29" s="6" t="s">
@@ -2059,16 +2409,14 @@
       <c r="E29" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="17">
-        <v>45538</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
+      <c r="F29" s="17"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="22"/>
       <c r="C30" s="6" t="s">
@@ -2080,16 +2428,14 @@
       <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="17">
-        <v>45538</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
+      <c r="F30" s="17"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="22"/>
       <c r="C31" s="6" t="s">
@@ -2101,16 +2447,14 @@
       <c r="E31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="17">
-        <v>45538</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
+      <c r="F31" s="17"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
       <c r="C32" s="6" t="s">
@@ -2122,78 +2466,97 @@
       <c r="E32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="17">
-        <v>45538</v>
-      </c>
-      <c r="G32">
-        <v>1200</v>
-      </c>
+      <c r="F32" s="17"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:9" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="24"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="14"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="22"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="14"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="22"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="14"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="22"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="14"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="22"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
       <c r="E37" s="14"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="14"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C39" s="6"/>
       <c r="D39" s="5"/>
       <c r="E39" s="14"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H41" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G44">
         <f>2600+3450</f>
         <v>6050</v>
